--- a/Thesis/Penelitian Mandiri V dan VII/data hasil v5.xlsx
+++ b/Thesis/Penelitian Mandiri V dan VII/data hasil v5.xlsx
@@ -83,7 +83,7 @@
     <t xml:space="preserve">Total nilai Fungsi Objective:</t>
   </si>
   <si>
-    <t xml:space="preserve">F = 324710874295.482 + 1531869.9 = 324712406165.382</t>
+    <t xml:space="preserve">F = 336769496996.926 + 42513.9 = 336769539510.826</t>
   </si>
   <si>
     <t xml:space="preserve">jenis_gula</t>
@@ -549,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>20000</v>
+        <v>424780</v>
       </c>
     </row>
     <row r="6">
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>58000</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="15">
@@ -640,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>35000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="16">
@@ -654,7 +654,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>80794</v>
       </c>
     </row>
     <row r="18">
@@ -682,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>19185</v>
       </c>
     </row>
     <row r="19">
@@ -696,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>99970</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -710,7 +710,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>68000</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="21">
@@ -724,7 +724,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>64000</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="22">
@@ -738,7 +738,7 @@
         <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>298208</v>
       </c>
     </row>
     <row r="23">
@@ -752,7 +752,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>109865</v>
       </c>
     </row>
     <row r="24">
@@ -766,7 +766,7 @@
         <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>21</v>
+        <v>16704</v>
       </c>
     </row>
     <row r="25">
@@ -780,7 +780,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>19977</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -794,7 +794,7 @@
         <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>20000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="27">
@@ -808,7 +808,7 @@
         <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>74000</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="28">
@@ -822,7 +822,7 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>43551</v>
       </c>
     </row>
     <row r="29">
@@ -836,7 +836,7 @@
         <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -850,7 +850,7 @@
         <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>106426</v>
       </c>
     </row>
     <row r="31">
@@ -864,7 +864,7 @@
         <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>149973</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -878,7 +878,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>78000</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="33">
@@ -892,7 +892,7 @@
         <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>30000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="34">
@@ -906,7 +906,7 @@
         <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>12</v>
+        <v>12026</v>
       </c>
     </row>
     <row r="35">
@@ -920,7 +920,7 @@
         <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>8</v>
+        <v>3969</v>
       </c>
     </row>
     <row r="36">
@@ -934,7 +934,7 @@
         <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -948,7 +948,7 @@
         <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>15975</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -962,7 +962,7 @@
         <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>40000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="39">
@@ -976,7 +976,7 @@
         <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>60000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="40">
@@ -990,7 +990,7 @@
         <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>15</v>
+        <v>19992</v>
       </c>
     </row>
     <row r="41">
@@ -1004,7 +1004,7 @@
         <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1018,7 +1018,7 @@
         <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -1032,7 +1032,7 @@
         <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>19953</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -1046,7 +1046,7 @@
         <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>50000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="45">
@@ -1060,7 +1060,7 @@
         <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>48000</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="46">
@@ -1074,7 +1074,7 @@
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
@@ -1088,7 +1088,7 @@
         <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>15973</v>
       </c>
     </row>
     <row r="48">
@@ -1102,7 +1102,7 @@
         <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -1116,7 +1116,7 @@
         <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>15995</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
@@ -1149,7 +1149,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>100000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="55">
@@ -1163,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>154000</v>
+        <v>66800</v>
       </c>
     </row>
     <row r="56">
@@ -1191,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>22.99999961199</v>
+        <v>0.799999999999363</v>
       </c>
     </row>
     <row r="58">
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>0.799999999995725</v>
       </c>
     </row>
     <row r="59">
@@ -1219,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>0.400000000008822</v>
       </c>
     </row>
     <row r="60">
@@ -1233,7 +1233,7 @@
         <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>100000</v>
+        <v>57000</v>
       </c>
     </row>
     <row r="61">
@@ -1247,7 +1247,7 @@
         <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>165300</v>
+        <v>61100</v>
       </c>
     </row>
     <row r="62">
@@ -1261,7 +1261,7 @@
         <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>229300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1275,7 +1275,7 @@
         <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>229300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1289,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>33052.4000061304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1317,7 +1317,7 @@
         <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>100000</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="67">
@@ -1331,7 +1331,7 @@
         <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>117800</v>
+        <v>65800</v>
       </c>
     </row>
     <row r="68">
@@ -1345,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>191800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1401,7 +1401,7 @@
         <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="73">
@@ -1415,7 +1415,7 @@
         <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>175800</v>
+        <v>55600</v>
       </c>
     </row>
     <row r="74">
@@ -1429,7 +1429,7 @@
         <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>60461.90000421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1443,7 +1443,7 @@
         <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>7817.80000606591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1485,7 +1485,7 @@
         <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>100000</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="79">
@@ -1499,7 +1499,7 @@
         <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>138100</v>
+        <v>72100</v>
       </c>
     </row>
     <row r="80">
@@ -1513,7 +1513,7 @@
         <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>163061.600002145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1527,7 +1527,7 @@
         <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>6466.60000045241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1555,7 +1555,7 @@
         <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>10.9999966801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -1569,7 +1569,7 @@
         <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>100000</v>
+        <v>61000</v>
       </c>
     </row>
     <row r="85">
@@ -1583,7 +1583,7 @@
         <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>147300</v>
+        <v>63300</v>
       </c>
     </row>
     <row r="86">
@@ -1597,7 +1597,7 @@
         <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>191388.399993645</v>
+        <v>42511.9</v>
       </c>
     </row>
     <row r="87">
@@ -1611,7 +1611,7 @@
         <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>176141.39999387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -1625,7 +1625,7 @@
         <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>176143.39999387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1639,7 +1639,7 @@
         <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>66902.4000033199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -1678,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -1763,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -1797,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -1814,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -2035,7 +2035,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -2069,7 +2069,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -2120,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="E120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -2154,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -2205,7 +2205,7 @@
         <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -2307,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -2477,7 +2477,7 @@
         <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -2698,7 +2698,7 @@
         <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -2766,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -2834,7 +2834,7 @@
         <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2851,7 +2851,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2936,7 +2936,7 @@
         <v>1</v>
       </c>
       <c r="E168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2970,7 +2970,7 @@
         <v>1</v>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2987,7 +2987,7 @@
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -3021,7 +3021,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -3055,7 +3055,7 @@
         <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -3157,7 +3157,7 @@
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -3293,7 +3293,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -3327,7 +3327,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -3344,7 +3344,7 @@
         <v>1</v>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -3429,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -3497,7 +3497,7 @@
         <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -3548,7 +3548,7 @@
         <v>1</v>
       </c>
       <c r="E204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -3582,7 +3582,7 @@
         <v>1</v>
       </c>
       <c r="E206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -3633,7 +3633,7 @@
         <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -3684,7 +3684,7 @@
         <v>1</v>
       </c>
       <c r="E212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -3701,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -3752,7 +3752,7 @@
         <v>1</v>
       </c>
       <c r="E216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -3769,7 +3769,7 @@
         <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -3786,7 +3786,7 @@
         <v>1</v>
       </c>
       <c r="E218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -3837,7 +3837,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -3922,7 +3922,7 @@
         <v>1</v>
       </c>
       <c r="E226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -3973,7 +3973,7 @@
         <v>1</v>
       </c>
       <c r="E229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -4024,7 +4024,7 @@
         <v>1</v>
       </c>
       <c r="E232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -4058,7 +4058,7 @@
         <v>1</v>
       </c>
       <c r="E234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -4075,7 +4075,7 @@
         <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -4092,7 +4092,7 @@
         <v>1</v>
       </c>
       <c r="E236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -4109,7 +4109,7 @@
         <v>1</v>
       </c>
       <c r="E237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -4126,7 +4126,7 @@
         <v>1</v>
       </c>
       <c r="E238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -4313,7 +4313,7 @@
         <v>1</v>
       </c>
       <c r="E249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -4381,7 +4381,7 @@
         <v>1</v>
       </c>
       <c r="E253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -4500,7 +4500,7 @@
         <v>1</v>
       </c>
       <c r="E260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -4653,7 +4653,7 @@
         <v>1</v>
       </c>
       <c r="E269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -4670,7 +4670,7 @@
         <v>1</v>
       </c>
       <c r="E270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -4772,7 +4772,7 @@
         <v>1</v>
       </c>
       <c r="E276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -4925,7 +4925,7 @@
         <v>1</v>
       </c>
       <c r="E285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="E286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -4993,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="E289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -5146,7 +5146,7 @@
         <v>2</v>
       </c>
       <c r="E298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -5231,7 +5231,7 @@
         <v>2</v>
       </c>
       <c r="E303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -5265,7 +5265,7 @@
         <v>2</v>
       </c>
       <c r="E305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -5282,7 +5282,7 @@
         <v>2</v>
       </c>
       <c r="E306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -5350,7 +5350,7 @@
         <v>2</v>
       </c>
       <c r="E310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -5435,7 +5435,7 @@
         <v>2</v>
       </c>
       <c r="E315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -5469,7 +5469,7 @@
         <v>2</v>
       </c>
       <c r="E317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -5486,7 +5486,7 @@
         <v>2</v>
       </c>
       <c r="E318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -5503,7 +5503,7 @@
         <v>2</v>
       </c>
       <c r="E319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -5537,7 +5537,7 @@
         <v>2</v>
       </c>
       <c r="E321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -5554,7 +5554,7 @@
         <v>2</v>
       </c>
       <c r="E322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
@@ -5588,7 +5588,7 @@
         <v>2</v>
       </c>
       <c r="E324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -5605,7 +5605,7 @@
         <v>2</v>
       </c>
       <c r="E325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -5622,7 +5622,7 @@
         <v>2</v>
       </c>
       <c r="E326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -5673,7 +5673,7 @@
         <v>2</v>
       </c>
       <c r="E329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
@@ -5724,7 +5724,7 @@
         <v>2</v>
       </c>
       <c r="E332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -5758,7 +5758,7 @@
         <v>2</v>
       </c>
       <c r="E334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -5775,7 +5775,7 @@
         <v>2</v>
       </c>
       <c r="E335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -5826,7 +5826,7 @@
         <v>2</v>
       </c>
       <c r="E338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -5894,7 +5894,7 @@
         <v>2</v>
       </c>
       <c r="E342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -5911,7 +5911,7 @@
         <v>2</v>
       </c>
       <c r="E343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -5928,7 +5928,7 @@
         <v>2</v>
       </c>
       <c r="E344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -5945,7 +5945,7 @@
         <v>2</v>
       </c>
       <c r="E345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -5996,7 +5996,7 @@
         <v>2</v>
       </c>
       <c r="E348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
@@ -6013,7 +6013,7 @@
         <v>2</v>
       </c>
       <c r="E349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
@@ -6030,7 +6030,7 @@
         <v>2</v>
       </c>
       <c r="E350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -6064,7 +6064,7 @@
         <v>2</v>
       </c>
       <c r="E352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -6115,7 +6115,7 @@
         <v>2</v>
       </c>
       <c r="E355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
@@ -6149,7 +6149,7 @@
         <v>2</v>
       </c>
       <c r="E357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
@@ -6200,7 +6200,7 @@
         <v>2</v>
       </c>
       <c r="E360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -6217,7 +6217,7 @@
         <v>2</v>
       </c>
       <c r="E361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
@@ -6234,7 +6234,7 @@
         <v>2</v>
       </c>
       <c r="E362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -6302,7 +6302,7 @@
         <v>2</v>
       </c>
       <c r="E366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
@@ -6319,7 +6319,7 @@
         <v>2</v>
       </c>
       <c r="E367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -6404,7 +6404,7 @@
         <v>2</v>
       </c>
       <c r="E372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
@@ -6421,7 +6421,7 @@
         <v>2</v>
       </c>
       <c r="E373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -6438,7 +6438,7 @@
         <v>2</v>
       </c>
       <c r="E374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
@@ -6455,7 +6455,7 @@
         <v>2</v>
       </c>
       <c r="E375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
@@ -6489,7 +6489,7 @@
         <v>2</v>
       </c>
       <c r="E377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -6506,7 +6506,7 @@
         <v>2</v>
       </c>
       <c r="E378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
@@ -6523,7 +6523,7 @@
         <v>2</v>
       </c>
       <c r="E379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
@@ -6540,7 +6540,7 @@
         <v>2</v>
       </c>
       <c r="E380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
@@ -6557,7 +6557,7 @@
         <v>2</v>
       </c>
       <c r="E381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
@@ -6625,7 +6625,7 @@
         <v>2</v>
       </c>
       <c r="E385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
@@ -6642,7 +6642,7 @@
         <v>2</v>
       </c>
       <c r="E386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
@@ -6659,7 +6659,7 @@
         <v>2</v>
       </c>
       <c r="E387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
@@ -6727,7 +6727,7 @@
         <v>2</v>
       </c>
       <c r="E391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
@@ -6778,7 +6778,7 @@
         <v>2</v>
       </c>
       <c r="E394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
@@ -6795,7 +6795,7 @@
         <v>2</v>
       </c>
       <c r="E395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
@@ -6812,7 +6812,7 @@
         <v>2</v>
       </c>
       <c r="E396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
@@ -6863,7 +6863,7 @@
         <v>2</v>
       </c>
       <c r="E399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
@@ -6897,7 +6897,7 @@
         <v>2</v>
       </c>
       <c r="E401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
@@ -6965,7 +6965,7 @@
         <v>2</v>
       </c>
       <c r="E405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -7050,7 +7050,7 @@
         <v>2</v>
       </c>
       <c r="E410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
@@ -7101,7 +7101,7 @@
         <v>2</v>
       </c>
       <c r="E413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
@@ -7237,7 +7237,7 @@
         <v>2</v>
       </c>
       <c r="E421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
@@ -7254,7 +7254,7 @@
         <v>2</v>
       </c>
       <c r="E422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
@@ -7390,7 +7390,7 @@
         <v>2</v>
       </c>
       <c r="E430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
@@ -7492,7 +7492,7 @@
         <v>2</v>
       </c>
       <c r="E436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
@@ -7526,7 +7526,7 @@
         <v>2</v>
       </c>
       <c r="E438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439">
@@ -7594,7 +7594,7 @@
         <v>2</v>
       </c>
       <c r="E442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
@@ -7781,7 +7781,7 @@
         <v>2</v>
       </c>
       <c r="E453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
@@ -8019,7 +8019,7 @@
         <v>2</v>
       </c>
       <c r="E467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
@@ -8393,7 +8393,7 @@
         <v>2</v>
       </c>
       <c r="E489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
@@ -8427,7 +8427,7 @@
         <v>2</v>
       </c>
       <c r="E491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
@@ -8495,7 +8495,7 @@
         <v>2</v>
       </c>
       <c r="E495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
@@ -8597,7 +8597,7 @@
         <v>2</v>
       </c>
       <c r="E501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
@@ -8699,7 +8699,7 @@
         <v>3</v>
       </c>
       <c r="E507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508">
@@ -8733,7 +8733,7 @@
         <v>3</v>
       </c>
       <c r="E509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510">
@@ -8818,7 +8818,7 @@
         <v>3</v>
       </c>
       <c r="E514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
@@ -8903,7 +8903,7 @@
         <v>3</v>
       </c>
       <c r="E519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
@@ -8971,7 +8971,7 @@
         <v>3</v>
       </c>
       <c r="E523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
@@ -9005,7 +9005,7 @@
         <v>3</v>
       </c>
       <c r="E525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526">
@@ -9022,7 +9022,7 @@
         <v>3</v>
       </c>
       <c r="E526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
@@ -9056,7 +9056,7 @@
         <v>3</v>
       </c>
       <c r="E528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
@@ -9073,7 +9073,7 @@
         <v>3</v>
       </c>
       <c r="E529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
@@ -9090,7 +9090,7 @@
         <v>3</v>
       </c>
       <c r="E530" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531">
@@ -9141,7 +9141,7 @@
         <v>3</v>
       </c>
       <c r="E533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534">
@@ -9226,7 +9226,7 @@
         <v>3</v>
       </c>
       <c r="E538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
@@ -9243,7 +9243,7 @@
         <v>3</v>
       </c>
       <c r="E539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
@@ -9396,7 +9396,7 @@
         <v>3</v>
       </c>
       <c r="E548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
@@ -9413,7 +9413,7 @@
         <v>3</v>
       </c>
       <c r="E549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
@@ -9498,7 +9498,7 @@
         <v>3</v>
       </c>
       <c r="E554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555">
@@ -9668,7 +9668,7 @@
         <v>3</v>
       </c>
       <c r="E564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
@@ -9702,7 +9702,7 @@
         <v>3</v>
       </c>
       <c r="E566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
@@ -9770,7 +9770,7 @@
         <v>3</v>
       </c>
       <c r="E570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571">
@@ -9872,7 +9872,7 @@
         <v>3</v>
       </c>
       <c r="E576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
@@ -9957,7 +9957,7 @@
         <v>3</v>
       </c>
       <c r="E581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582">
@@ -9991,7 +9991,7 @@
         <v>3</v>
       </c>
       <c r="E583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584">
@@ -10008,7 +10008,7 @@
         <v>3</v>
       </c>
       <c r="E584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585">
@@ -10110,7 +10110,7 @@
         <v>3</v>
       </c>
       <c r="E590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591">
@@ -10195,7 +10195,7 @@
         <v>3</v>
       </c>
       <c r="E595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596">
@@ -10280,7 +10280,7 @@
         <v>3</v>
       </c>
       <c r="E600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601">
@@ -10365,7 +10365,7 @@
         <v>3</v>
       </c>
       <c r="E605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606">
@@ -10433,7 +10433,7 @@
         <v>3</v>
       </c>
       <c r="E609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610">
@@ -10518,7 +10518,7 @@
         <v>3</v>
       </c>
       <c r="E614" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615">
@@ -10569,7 +10569,7 @@
         <v>3</v>
       </c>
       <c r="E617" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618">
@@ -10620,7 +10620,7 @@
         <v>3</v>
       </c>
       <c r="E620" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621">
@@ -10637,7 +10637,7 @@
         <v>3</v>
       </c>
       <c r="E621" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622">
@@ -10705,7 +10705,7 @@
         <v>3</v>
       </c>
       <c r="E625" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626">
@@ -10722,7 +10722,7 @@
         <v>3</v>
       </c>
       <c r="E626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627">
@@ -10773,7 +10773,7 @@
         <v>3</v>
       </c>
       <c r="E629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630">
@@ -10858,7 +10858,7 @@
         <v>3</v>
       </c>
       <c r="E634" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635">
@@ -11011,7 +11011,7 @@
         <v>3</v>
       </c>
       <c r="E643" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644">
@@ -11249,7 +11249,7 @@
         <v>3</v>
       </c>
       <c r="E657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658">
@@ -11317,7 +11317,7 @@
         <v>3</v>
       </c>
       <c r="E661" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662">
@@ -11334,7 +11334,7 @@
         <v>3</v>
       </c>
       <c r="E662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663">
@@ -12014,7 +12014,7 @@
         <v>3</v>
       </c>
       <c r="E702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703">
@@ -12201,7 +12201,7 @@
         <v>4</v>
       </c>
       <c r="E713" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714">
@@ -12286,7 +12286,7 @@
         <v>4</v>
       </c>
       <c r="E718" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719">
@@ -12439,7 +12439,7 @@
         <v>4</v>
       </c>
       <c r="E727" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728">
@@ -12473,7 +12473,7 @@
         <v>4</v>
       </c>
       <c r="E729" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730">
@@ -12490,7 +12490,7 @@
         <v>4</v>
       </c>
       <c r="E730" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731">
@@ -12524,7 +12524,7 @@
         <v>4</v>
       </c>
       <c r="E732" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733">
@@ -12558,7 +12558,7 @@
         <v>4</v>
       </c>
       <c r="E734" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735">
@@ -12609,7 +12609,7 @@
         <v>4</v>
       </c>
       <c r="E737" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738">
@@ -12660,7 +12660,7 @@
         <v>4</v>
       </c>
       <c r="E740" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741">
@@ -12711,7 +12711,7 @@
         <v>4</v>
       </c>
       <c r="E743" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744">
@@ -12949,7 +12949,7 @@
         <v>4</v>
       </c>
       <c r="E757" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758">
@@ -13085,7 +13085,7 @@
         <v>4</v>
       </c>
       <c r="E765" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766">
@@ -13102,7 +13102,7 @@
         <v>4</v>
       </c>
       <c r="E766" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767">
@@ -13136,7 +13136,7 @@
         <v>4</v>
       </c>
       <c r="E768" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769">
@@ -13374,7 +13374,7 @@
         <v>4</v>
       </c>
       <c r="E782" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783">
@@ -13476,7 +13476,7 @@
         <v>4</v>
       </c>
       <c r="E788" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789">
@@ -13578,7 +13578,7 @@
         <v>4</v>
       </c>
       <c r="E794" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795">
@@ -13595,7 +13595,7 @@
         <v>4</v>
       </c>
       <c r="E795" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796">
@@ -13663,7 +13663,7 @@
         <v>4</v>
       </c>
       <c r="E799" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800">
@@ -13799,7 +13799,7 @@
         <v>4</v>
       </c>
       <c r="E807" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808">
@@ -13952,7 +13952,7 @@
         <v>4</v>
       </c>
       <c r="E816" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817">
@@ -14156,7 +14156,7 @@
         <v>4</v>
       </c>
       <c r="E828" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829">
@@ -14496,7 +14496,7 @@
         <v>4</v>
       </c>
       <c r="E848" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849">
@@ -14513,7 +14513,7 @@
         <v>4</v>
       </c>
       <c r="E849" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850">
@@ -14955,7 +14955,7 @@
         <v>4</v>
       </c>
       <c r="E875" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876">
@@ -15074,7 +15074,7 @@
         <v>4</v>
       </c>
       <c r="E882" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883">
@@ -15295,7 +15295,7 @@
         <v>4</v>
       </c>
       <c r="E895" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896">
@@ -15363,7 +15363,7 @@
         <v>4</v>
       </c>
       <c r="E899" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900">
@@ -15397,7 +15397,7 @@
         <v>4</v>
       </c>
       <c r="E901" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902">
@@ -15431,7 +15431,7 @@
         <v>4</v>
       </c>
       <c r="E903" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904">
@@ -15482,7 +15482,7 @@
         <v>4</v>
       </c>
       <c r="E906" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907">
@@ -15533,7 +15533,7 @@
         <v>4</v>
       </c>
       <c r="E909" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910">
@@ -16434,7 +16434,7 @@
         <v>5</v>
       </c>
       <c r="E962" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963">
@@ -16468,7 +16468,7 @@
         <v>5</v>
       </c>
       <c r="E964" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965">
@@ -16519,7 +16519,7 @@
         <v>5</v>
       </c>
       <c r="E967" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968">
@@ -16604,7 +16604,7 @@
         <v>5</v>
       </c>
       <c r="E972" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973">
@@ -16621,7 +16621,7 @@
         <v>5</v>
       </c>
       <c r="E973" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974">
@@ -16638,7 +16638,7 @@
         <v>5</v>
       </c>
       <c r="E974" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975">
@@ -16723,7 +16723,7 @@
         <v>5</v>
       </c>
       <c r="E979" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980">
@@ -16808,7 +16808,7 @@
         <v>5</v>
       </c>
       <c r="E984" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985">
@@ -16825,7 +16825,7 @@
         <v>5</v>
       </c>
       <c r="E985" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="986">
@@ -16859,7 +16859,7 @@
         <v>5</v>
       </c>
       <c r="E987" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988">
@@ -16893,7 +16893,7 @@
         <v>5</v>
       </c>
       <c r="E989" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990">
@@ -16910,7 +16910,7 @@
         <v>5</v>
       </c>
       <c r="E990" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991">
@@ -16927,7 +16927,7 @@
         <v>5</v>
       </c>
       <c r="E991" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992">
@@ -16944,7 +16944,7 @@
         <v>5</v>
       </c>
       <c r="E992" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993">
@@ -16961,7 +16961,7 @@
         <v>5</v>
       </c>
       <c r="E993" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994">
@@ -17029,7 +17029,7 @@
         <v>5</v>
       </c>
       <c r="E997" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998">
@@ -17046,7 +17046,7 @@
         <v>5</v>
       </c>
       <c r="E998" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999">
@@ -17063,7 +17063,7 @@
         <v>5</v>
       </c>
       <c r="E999" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000">
@@ -17199,7 +17199,7 @@
         <v>5</v>
       </c>
       <c r="E1007" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1008">
@@ -17216,7 +17216,7 @@
         <v>5</v>
       </c>
       <c r="E1008" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1009">
@@ -17369,7 +17369,7 @@
         <v>5</v>
       </c>
       <c r="E1017" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1018">
@@ -17454,7 +17454,7 @@
         <v>5</v>
       </c>
       <c r="E1022" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1023">
@@ -17505,7 +17505,7 @@
         <v>5</v>
       </c>
       <c r="E1025" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1026">
@@ -17658,7 +17658,7 @@
         <v>5</v>
       </c>
       <c r="E1034" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1035">
@@ -17709,7 +17709,7 @@
         <v>5</v>
       </c>
       <c r="E1037" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1038">
@@ -17794,7 +17794,7 @@
         <v>5</v>
       </c>
       <c r="E1042" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1043">
@@ -17947,7 +17947,7 @@
         <v>5</v>
       </c>
       <c r="E1051" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052">
@@ -18185,7 +18185,7 @@
         <v>5</v>
       </c>
       <c r="E1065" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066">
@@ -18253,7 +18253,7 @@
         <v>5</v>
       </c>
       <c r="E1069" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1070">
@@ -18270,7 +18270,7 @@
         <v>5</v>
       </c>
       <c r="E1070" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071">
@@ -18423,7 +18423,7 @@
         <v>5</v>
       </c>
       <c r="E1079" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1080">
@@ -18525,7 +18525,7 @@
         <v>5</v>
       </c>
       <c r="E1085" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1086">
@@ -18542,7 +18542,7 @@
         <v>5</v>
       </c>
       <c r="E1086" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1087">
@@ -18797,7 +18797,7 @@
         <v>5</v>
       </c>
       <c r="E1101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1102">
@@ -18814,7 +18814,7 @@
         <v>5</v>
       </c>
       <c r="E1102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1103">
@@ -18950,7 +18950,7 @@
         <v>5</v>
       </c>
       <c r="E1110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1111">
@@ -19103,7 +19103,7 @@
         <v>6</v>
       </c>
       <c r="E1119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1120">
@@ -19137,7 +19137,7 @@
         <v>6</v>
       </c>
       <c r="E1121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1122">
@@ -19222,7 +19222,7 @@
         <v>6</v>
       </c>
       <c r="E1126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1127">
@@ -19307,7 +19307,7 @@
         <v>6</v>
       </c>
       <c r="E1131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1132">
@@ -19375,7 +19375,7 @@
         <v>6</v>
       </c>
       <c r="E1135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1136">
@@ -19426,7 +19426,7 @@
         <v>6</v>
       </c>
       <c r="E1138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1139">
@@ -19460,7 +19460,7 @@
         <v>6</v>
       </c>
       <c r="E1140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1141">
@@ -19477,7 +19477,7 @@
         <v>6</v>
       </c>
       <c r="E1141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1142">
@@ -19494,7 +19494,7 @@
         <v>6</v>
       </c>
       <c r="E1142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1143">
@@ -19545,7 +19545,7 @@
         <v>6</v>
       </c>
       <c r="E1145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1146">
@@ -19647,7 +19647,7 @@
         <v>6</v>
       </c>
       <c r="E1151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1152">
@@ -19783,7 +19783,7 @@
         <v>6</v>
       </c>
       <c r="E1159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1160">
@@ -19817,7 +19817,7 @@
         <v>6</v>
       </c>
       <c r="E1161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1162">
@@ -20310,7 +20310,7 @@
         <v>6</v>
       </c>
       <c r="E1190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1191">
@@ -20599,7 +20599,7 @@
         <v>6</v>
       </c>
       <c r="E1207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1208">
@@ -20769,7 +20769,7 @@
         <v>6</v>
       </c>
       <c r="E1217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1218">
@@ -21024,7 +21024,7 @@
         <v>6</v>
       </c>
       <c r="E1232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1233">
@@ -21041,7 +21041,7 @@
         <v>6</v>
       </c>
       <c r="E1233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1234">
@@ -21109,7 +21109,7 @@
         <v>6</v>
       </c>
       <c r="E1237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1238">
@@ -21177,7 +21177,7 @@
         <v>6</v>
       </c>
       <c r="E1241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1242">
@@ -21653,7 +21653,7 @@
         <v>6</v>
       </c>
       <c r="E1269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1270">
@@ -21840,7 +21840,7 @@
         <v>6</v>
       </c>
       <c r="E1280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1281">
@@ -21993,7 +21993,7 @@
         <v>6</v>
       </c>
       <c r="E1289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1290">
@@ -22112,7 +22112,7 @@
         <v>6</v>
       </c>
       <c r="E1296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1297">
@@ -22231,7 +22231,7 @@
         <v>6</v>
       </c>
       <c r="E1303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1304">
@@ -22265,7 +22265,7 @@
         <v>6</v>
       </c>
       <c r="E1305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1306">
@@ -22418,7 +22418,7 @@
         <v>6</v>
       </c>
       <c r="E1314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1315">
@@ -22508,7 +22508,7 @@
         <v>1</v>
       </c>
       <c r="E1322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1323">
@@ -22593,7 +22593,7 @@
         <v>1</v>
       </c>
       <c r="E1327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1328">
@@ -22627,7 +22627,7 @@
         <v>1</v>
       </c>
       <c r="E1329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1330">
@@ -22644,7 +22644,7 @@
         <v>1</v>
       </c>
       <c r="E1330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1331">
@@ -22712,7 +22712,7 @@
         <v>1</v>
       </c>
       <c r="E1334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1335">
@@ -22763,7 +22763,7 @@
         <v>1</v>
       </c>
       <c r="E1337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1338">
@@ -22797,7 +22797,7 @@
         <v>1</v>
       </c>
       <c r="E1339" t="n">
-        <v>1</v>
+        <v>0.948210668467252</v>
       </c>
     </row>
     <row r="1340">
@@ -22848,7 +22848,7 @@
         <v>1</v>
       </c>
       <c r="E1342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1343">
@@ -22865,7 +22865,7 @@
         <v>1</v>
       </c>
       <c r="E1343" t="n">
-        <v>0.9999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1344">
@@ -22899,7 +22899,7 @@
         <v>1</v>
       </c>
       <c r="E1345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1346">
@@ -22916,7 +22916,7 @@
         <v>1</v>
       </c>
       <c r="E1346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1347">
@@ -22950,7 +22950,7 @@
         <v>1</v>
       </c>
       <c r="E1348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1349">
@@ -22984,7 +22984,7 @@
         <v>1</v>
       </c>
       <c r="E1350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1351">
@@ -23035,7 +23035,7 @@
         <v>1</v>
       </c>
       <c r="E1353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1354">
@@ -23086,7 +23086,7 @@
         <v>1</v>
       </c>
       <c r="E1356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1357">
@@ -23137,7 +23137,7 @@
         <v>1</v>
       </c>
       <c r="E1359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1360">
@@ -23256,7 +23256,7 @@
         <v>1</v>
       </c>
       <c r="E1366" t="n">
-        <v>0.486552239434328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1367">
@@ -23273,7 +23273,7 @@
         <v>1</v>
       </c>
       <c r="E1367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1368">
@@ -23307,7 +23307,7 @@
         <v>1</v>
       </c>
       <c r="E1369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1370">
@@ -23358,7 +23358,7 @@
         <v>1</v>
       </c>
       <c r="E1372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1373">
@@ -23375,7 +23375,7 @@
         <v>1</v>
       </c>
       <c r="E1373" t="n">
-        <v>0.0000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1374">
@@ -23511,7 +23511,7 @@
         <v>1</v>
       </c>
       <c r="E1381" t="n">
-        <v>0.0000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1382">
@@ -23596,7 +23596,7 @@
         <v>1</v>
       </c>
       <c r="E1386" t="n">
-        <v>0</v>
+        <v>0.0000000001</v>
       </c>
     </row>
     <row r="1387">
@@ -23664,7 +23664,7 @@
         <v>1</v>
       </c>
       <c r="E1390" t="n">
-        <v>0</v>
+        <v>0.0000504163750101316</v>
       </c>
     </row>
     <row r="1391">
@@ -23800,7 +23800,7 @@
         <v>1</v>
       </c>
       <c r="E1398" t="n">
-        <v>0</v>
+        <v>0.0000000001</v>
       </c>
     </row>
     <row r="1399">
@@ -23987,7 +23987,7 @@
         <v>1</v>
       </c>
       <c r="E1409" t="n">
-        <v>0</v>
+        <v>-0.000000000100000008274037</v>
       </c>
     </row>
     <row r="1410">
@@ -24021,7 +24021,7 @@
         <v>1</v>
       </c>
       <c r="E1411" t="n">
-        <v>0</v>
+        <v>-0.0000000001</v>
       </c>
     </row>
     <row r="1412">
@@ -24123,7 +24123,7 @@
         <v>1</v>
       </c>
       <c r="E1417" t="n">
-        <v>-0.00000000009999999998</v>
+        <v>0.0000000001</v>
       </c>
     </row>
     <row r="1418">
@@ -24140,7 +24140,7 @@
         <v>1</v>
       </c>
       <c r="E1418" t="n">
-        <v>0.0000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1419">
@@ -24327,7 +24327,7 @@
         <v>1</v>
       </c>
       <c r="E1429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1430">
@@ -24378,7 +24378,7 @@
         <v>1</v>
       </c>
       <c r="E1432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1433">
@@ -24412,7 +24412,7 @@
         <v>1</v>
       </c>
       <c r="E1434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1435">
@@ -24463,7 +24463,7 @@
         <v>1</v>
       </c>
       <c r="E1437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1438">
@@ -24514,7 +24514,7 @@
         <v>1</v>
       </c>
       <c r="E1440" t="n">
-        <v>0</v>
+        <v>-0.000000000300000024822111</v>
       </c>
     </row>
     <row r="1441">
@@ -24531,7 +24531,7 @@
         <v>1</v>
       </c>
       <c r="E1441" t="n">
-        <v>0</v>
+        <v>0.0000000001</v>
       </c>
     </row>
     <row r="1442">
@@ -24582,7 +24582,7 @@
         <v>1</v>
       </c>
       <c r="E1444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1445">
@@ -24599,7 +24599,7 @@
         <v>1</v>
       </c>
       <c r="E1445" t="n">
-        <v>0</v>
+        <v>0.299905214921801</v>
       </c>
     </row>
     <row r="1446">
@@ -24616,7 +24616,7 @@
         <v>1</v>
       </c>
       <c r="E1446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1447">
@@ -24667,7 +24667,7 @@
         <v>1</v>
       </c>
       <c r="E1449" t="n">
-        <v>0</v>
+        <v>-0.000000000200000016548074</v>
       </c>
     </row>
     <row r="1450">
@@ -24752,7 +24752,7 @@
         <v>1</v>
       </c>
       <c r="E1454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1455">
@@ -24854,7 +24854,7 @@
         <v>1</v>
       </c>
       <c r="E1460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1461">
@@ -24888,7 +24888,7 @@
         <v>1</v>
       </c>
       <c r="E1462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1463">
@@ -24922,7 +24922,7 @@
         <v>1</v>
       </c>
       <c r="E1464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1465">
@@ -24939,7 +24939,7 @@
         <v>1</v>
       </c>
       <c r="E1465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1466">
@@ -24956,7 +24956,7 @@
         <v>1</v>
       </c>
       <c r="E1466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1467">
@@ -24973,7 +24973,7 @@
         <v>1</v>
       </c>
       <c r="E1467" t="n">
-        <v>0.00198581557533972</v>
+        <v>0.775531914535815</v>
       </c>
     </row>
     <row r="1468">
@@ -24990,7 +24990,7 @@
         <v>1</v>
       </c>
       <c r="E1468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1469">
@@ -25109,7 +25109,7 @@
         <v>1</v>
       </c>
       <c r="E1475" t="n">
-        <v>0</v>
+        <v>0.735431098464346</v>
       </c>
     </row>
     <row r="1476">
@@ -25143,7 +25143,7 @@
         <v>1</v>
       </c>
       <c r="E1477" t="n">
-        <v>0.0000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1478">
@@ -25228,7 +25228,7 @@
         <v>1</v>
       </c>
       <c r="E1482" t="n">
-        <v>0</v>
+        <v>0.9999999999</v>
       </c>
     </row>
     <row r="1483">
@@ -25330,7 +25330,7 @@
         <v>1</v>
       </c>
       <c r="E1488" t="n">
-        <v>0</v>
+        <v>0.980000006275</v>
       </c>
     </row>
     <row r="1489">
@@ -25449,7 +25449,7 @@
         <v>1</v>
       </c>
       <c r="E1495" t="n">
-        <v>0.000142856980692857</v>
+        <v>0.0000000001</v>
       </c>
     </row>
     <row r="1496">
@@ -25483,7 +25483,7 @@
         <v>1</v>
       </c>
       <c r="E1497" t="n">
-        <v>0</v>
+        <v>0.0000000001</v>
       </c>
     </row>
     <row r="1498">
@@ -25721,7 +25721,7 @@
         <v>1</v>
       </c>
       <c r="E1511" t="n">
-        <v>0</v>
+        <v>-0.000000000100000008274037</v>
       </c>
     </row>
     <row r="1512">
@@ -25755,7 +25755,7 @@
         <v>1</v>
       </c>
       <c r="E1513" t="n">
-        <v>0</v>
+        <v>0.0197169810636787</v>
       </c>
     </row>
     <row r="1514">
@@ -25772,7 +25772,7 @@
         <v>1</v>
       </c>
       <c r="E1514" t="n">
-        <v>0.0000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1515">
@@ -25789,7 +25789,7 @@
         <v>1</v>
       </c>
       <c r="E1515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1516">
@@ -25857,7 +25857,7 @@
         <v>1</v>
       </c>
       <c r="E1519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1520">
@@ -25959,7 +25959,7 @@
         <v>1</v>
       </c>
       <c r="E1525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1526">
@@ -26299,7 +26299,7 @@
         <v>2</v>
       </c>
       <c r="E1545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1546">
@@ -26333,7 +26333,7 @@
         <v>2</v>
       </c>
       <c r="E1547" t="n">
-        <v>0</v>
+        <v>0.0000000001</v>
       </c>
     </row>
     <row r="1548">
@@ -26435,7 +26435,7 @@
         <v>2</v>
       </c>
       <c r="E1553" t="n">
-        <v>0</v>
+        <v>0.22229272416066</v>
       </c>
     </row>
     <row r="1554">
@@ -26554,7 +26554,7 @@
         <v>2</v>
       </c>
       <c r="E1560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1561">
@@ -26656,7 +26656,7 @@
         <v>2</v>
       </c>
       <c r="E1566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1567">
@@ -26724,7 +26724,7 @@
         <v>2</v>
       </c>
       <c r="E1570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1571">
@@ -26843,7 +26843,7 @@
         <v>2</v>
       </c>
       <c r="E1577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1578">
@@ -26860,7 +26860,7 @@
         <v>2</v>
       </c>
       <c r="E1578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1579">
@@ -26979,7 +26979,7 @@
         <v>2</v>
       </c>
       <c r="E1585" t="n">
-        <v>0.0000000000000000000100000061460038</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1586">
@@ -26996,7 +26996,7 @@
         <v>2</v>
       </c>
       <c r="E1586" t="n">
-        <v>0.0000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1587">
@@ -27064,7 +27064,7 @@
         <v>2</v>
       </c>
       <c r="E1590" t="n">
-        <v>0</v>
+        <v>0.9999999999</v>
       </c>
     </row>
     <row r="1591">
@@ -27132,7 +27132,7 @@
         <v>2</v>
       </c>
       <c r="E1594" t="n">
-        <v>-0.00000000000660814764684943</v>
+        <v>0.909956335819453</v>
       </c>
     </row>
     <row r="1595">
@@ -27234,7 +27234,7 @@
         <v>2</v>
       </c>
       <c r="E1600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1601">
@@ -27268,7 +27268,7 @@
         <v>2</v>
       </c>
       <c r="E1602" t="n">
-        <v>0</v>
+        <v>0.0886141975671294</v>
       </c>
     </row>
     <row r="1603">
@@ -27285,7 +27285,7 @@
         <v>2</v>
       </c>
       <c r="E1603" t="n">
-        <v>0</v>
+        <v>0.9999999999</v>
       </c>
     </row>
     <row r="1604">
@@ -27319,7 +27319,7 @@
         <v>2</v>
       </c>
       <c r="E1605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1606">
@@ -27353,7 +27353,7 @@
         <v>2</v>
       </c>
       <c r="E1607" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1608">
@@ -27455,7 +27455,7 @@
         <v>2</v>
       </c>
       <c r="E1613" t="n">
-        <v>0</v>
+        <v>0.0000000001</v>
       </c>
     </row>
     <row r="1614">
@@ -27489,7 +27489,7 @@
         <v>2</v>
       </c>
       <c r="E1615" t="n">
-        <v>0</v>
+        <v>0.0000000001</v>
       </c>
     </row>
     <row r="1616">
@@ -27591,7 +27591,7 @@
         <v>2</v>
       </c>
       <c r="E1621" t="n">
-        <v>0.00000000009999999998</v>
+        <v>0.983582089353992</v>
       </c>
     </row>
     <row r="1622">
@@ -27608,7 +27608,7 @@
         <v>2</v>
       </c>
       <c r="E1622" t="n">
-        <v>0</v>
+        <v>0.0000000001</v>
       </c>
     </row>
     <row r="1623">
@@ -27625,7 +27625,7 @@
         <v>2</v>
       </c>
       <c r="E1623" t="n">
-        <v>0</v>
+        <v>0.9999999999</v>
       </c>
     </row>
     <row r="1624">
@@ -27642,7 +27642,7 @@
         <v>2</v>
       </c>
       <c r="E1624" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1625">
@@ -27693,7 +27693,7 @@
         <v>2</v>
       </c>
       <c r="E1627" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1628">
@@ -27727,7 +27727,7 @@
         <v>2</v>
       </c>
       <c r="E1629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1630">
@@ -27795,7 +27795,7 @@
         <v>2</v>
       </c>
       <c r="E1633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1634">
@@ -27846,7 +27846,7 @@
         <v>2</v>
       </c>
       <c r="E1636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1637">
@@ -27880,7 +27880,7 @@
         <v>2</v>
       </c>
       <c r="E1638" t="n">
-        <v>0.9999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1639">
@@ -27931,7 +27931,7 @@
         <v>2</v>
       </c>
       <c r="E1641" t="n">
-        <v>0.0000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1642">
@@ -27999,7 +27999,7 @@
         <v>2</v>
       </c>
       <c r="E1645" t="n">
-        <v>1</v>
+        <v>0.9999999998</v>
       </c>
     </row>
     <row r="1646">
@@ -28050,7 +28050,7 @@
         <v>2</v>
       </c>
       <c r="E1648" t="n">
-        <v>0.724514285281021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1649">
@@ -28067,7 +28067,7 @@
         <v>2</v>
       </c>
       <c r="E1649" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1650">
@@ -28084,7 +28084,7 @@
         <v>2</v>
       </c>
       <c r="E1650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1651">
@@ -28135,7 +28135,7 @@
         <v>2</v>
       </c>
       <c r="E1653" t="n">
-        <v>0.86139814814624</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1654">
@@ -28220,7 +28220,7 @@
         <v>2</v>
       </c>
       <c r="E1658" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1659">
@@ -28322,7 +28322,7 @@
         <v>2</v>
       </c>
       <c r="E1664" t="n">
-        <v>0.9999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1665">
@@ -28356,7 +28356,7 @@
         <v>2</v>
       </c>
       <c r="E1666" t="n">
-        <v>0.995660377912264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1667">
@@ -28390,7 +28390,7 @@
         <v>2</v>
       </c>
       <c r="E1668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1669">
@@ -28407,7 +28407,7 @@
         <v>2</v>
       </c>
       <c r="E1669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1670">
@@ -28424,7 +28424,7 @@
         <v>2</v>
       </c>
       <c r="E1670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1671">
@@ -28441,7 +28441,7 @@
         <v>2</v>
       </c>
       <c r="E1671" t="n">
-        <v>0.99801418442466</v>
+        <v>0.224468085464185</v>
       </c>
     </row>
     <row r="1672">
@@ -28458,7 +28458,7 @@
         <v>2</v>
       </c>
       <c r="E1672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1673">
@@ -28577,7 +28577,7 @@
         <v>2</v>
       </c>
       <c r="E1679" t="n">
-        <v>1</v>
+        <v>0.264568901535654</v>
       </c>
     </row>
     <row r="1680">
@@ -28611,7 +28611,7 @@
         <v>2</v>
       </c>
       <c r="E1681" t="n">
-        <v>0</v>
+        <v>0.0000000001</v>
       </c>
     </row>
     <row r="1682">
@@ -28679,7 +28679,7 @@
         <v>2</v>
       </c>
       <c r="E1685" t="n">
-        <v>0</v>
+        <v>-0.000000000100000008274037</v>
       </c>
     </row>
     <row r="1686">
@@ -28849,7 +28849,7 @@
         <v>2</v>
       </c>
       <c r="E1695" t="n">
-        <v>0.0000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1696">
@@ -28917,7 +28917,7 @@
         <v>2</v>
       </c>
       <c r="E1699" t="n">
-        <v>0.999857143019307</v>
+        <v>0.9999999999</v>
       </c>
     </row>
     <row r="1700">
@@ -29223,7 +29223,7 @@
         <v>2</v>
       </c>
       <c r="E1717" t="n">
-        <v>0.0000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1718">
@@ -29257,7 +29257,7 @@
         <v>2</v>
       </c>
       <c r="E1719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1720">
@@ -29325,7 +29325,7 @@
         <v>2</v>
       </c>
       <c r="E1723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1724">
@@ -29427,7 +29427,7 @@
         <v>2</v>
       </c>
       <c r="E1729" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1730">
@@ -29529,7 +29529,7 @@
         <v>3</v>
       </c>
       <c r="E1735" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1736">
@@ -29648,7 +29648,7 @@
         <v>3</v>
       </c>
       <c r="E1742" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1743">
@@ -29852,7 +29852,7 @@
         <v>3</v>
       </c>
       <c r="E1754" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1755">
@@ -29903,7 +29903,7 @@
         <v>3</v>
       </c>
       <c r="E1757" t="n">
-        <v>0</v>
+        <v>0.099492385786802</v>
       </c>
     </row>
     <row r="1758">
@@ -29920,7 +29920,7 @@
         <v>3</v>
       </c>
       <c r="E1758" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1759">
@@ -29971,7 +29971,7 @@
         <v>3</v>
       </c>
       <c r="E1761" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1762">
@@ -30056,7 +30056,7 @@
         <v>3</v>
       </c>
       <c r="E1766" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1767">
@@ -30226,7 +30226,7 @@
         <v>3</v>
       </c>
       <c r="E1776" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1777">
@@ -30243,7 +30243,7 @@
         <v>3</v>
       </c>
       <c r="E1777" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1778">
@@ -30328,7 +30328,7 @@
         <v>3</v>
       </c>
       <c r="E1782" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1783">
@@ -30498,7 +30498,7 @@
         <v>3</v>
       </c>
       <c r="E1792" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1793">
@@ -30532,7 +30532,7 @@
         <v>3</v>
       </c>
       <c r="E1794" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1795">
@@ -30600,7 +30600,7 @@
         <v>3</v>
       </c>
       <c r="E1798" t="n">
-        <v>0.295025883416385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1799">
@@ -30702,7 +30702,7 @@
         <v>3</v>
       </c>
       <c r="E1804" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1805">
@@ -30736,7 +30736,7 @@
         <v>3</v>
       </c>
       <c r="E1806" t="n">
-        <v>0.0000000001</v>
+        <v>0.0000308640612654275</v>
       </c>
     </row>
     <row r="1807">
@@ -30753,7 +30753,7 @@
         <v>3</v>
       </c>
       <c r="E1807" t="n">
-        <v>0.9999999999</v>
+        <v>0.0000000001</v>
       </c>
     </row>
     <row r="1808">
@@ -30787,7 +30787,7 @@
         <v>3</v>
       </c>
       <c r="E1809" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1810">
@@ -30821,7 +30821,7 @@
         <v>3</v>
       </c>
       <c r="E1811" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1812">
@@ -30838,7 +30838,7 @@
         <v>3</v>
       </c>
       <c r="E1812" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1813">
@@ -30940,7 +30940,7 @@
         <v>3</v>
       </c>
       <c r="E1818" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1819">
@@ -31025,7 +31025,7 @@
         <v>3</v>
       </c>
       <c r="E1823" t="n">
-        <v>0.0000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1824">
@@ -31093,7 +31093,7 @@
         <v>3</v>
       </c>
       <c r="E1827" t="n">
-        <v>0.9999999999</v>
+        <v>0.0000000001</v>
       </c>
     </row>
     <row r="1828">
@@ -31110,7 +31110,7 @@
         <v>3</v>
       </c>
       <c r="E1828" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1829">
@@ -31195,7 +31195,7 @@
         <v>3</v>
       </c>
       <c r="E1833" t="n">
-        <v>0</v>
+        <v>0.0000000001</v>
       </c>
     </row>
     <row r="1834">
@@ -31450,7 +31450,7 @@
         <v>3</v>
       </c>
       <c r="E1848" t="n">
-        <v>0</v>
+        <v>0.0000000001</v>
       </c>
     </row>
     <row r="1849">
@@ -31535,7 +31535,7 @@
         <v>3</v>
       </c>
       <c r="E1853" t="n">
-        <v>0</v>
+        <v>0.00113743990473934</v>
       </c>
     </row>
     <row r="1854">
@@ -31603,7 +31603,7 @@
         <v>3</v>
       </c>
       <c r="E1857" t="n">
-        <v>0</v>
+        <v>0.0000000001</v>
       </c>
     </row>
     <row r="1858">
@@ -31790,7 +31790,7 @@
         <v>3</v>
       </c>
       <c r="E1868" t="n">
-        <v>0.0000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1869">
@@ -31824,7 +31824,7 @@
         <v>3</v>
       </c>
       <c r="E1870" t="n">
-        <v>0.00433962208773585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1871">
@@ -32079,7 +32079,7 @@
         <v>3</v>
       </c>
       <c r="E1885" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1886">
@@ -32147,7 +32147,7 @@
         <v>3</v>
       </c>
       <c r="E1889" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1890">
@@ -32317,7 +32317,7 @@
         <v>3</v>
       </c>
       <c r="E1899" t="n">
-        <v>0.000000000100000008274037</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1900">
@@ -32419,7 +32419,7 @@
         <v>3</v>
       </c>
       <c r="E1905" t="n">
-        <v>0</v>
+        <v>0.9999999999</v>
       </c>
     </row>
     <row r="1906">
@@ -32436,7 +32436,7 @@
         <v>3</v>
       </c>
       <c r="E1906" t="n">
-        <v>-0.0000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1907">
@@ -32538,7 +32538,7 @@
         <v>3</v>
       </c>
       <c r="E1912" t="n">
-        <v>0</v>
+        <v>0.9999999999</v>
       </c>
     </row>
     <row r="1913">
@@ -32657,7 +32657,7 @@
         <v>3</v>
       </c>
       <c r="E1919" t="n">
-        <v>-0.0000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1920">
@@ -32691,7 +32691,7 @@
         <v>3</v>
       </c>
       <c r="E1921" t="n">
-        <v>0.000188679285377352</v>
+        <v>0.980283018936321</v>
       </c>
     </row>
     <row r="1922">
@@ -32708,7 +32708,7 @@
         <v>3</v>
       </c>
       <c r="E1922" t="n">
-        <v>0</v>
+        <v>0.999760765573206</v>
       </c>
     </row>
     <row r="1923">
@@ -32759,7 +32759,7 @@
         <v>3</v>
       </c>
       <c r="E1925" t="n">
-        <v>0</v>
+        <v>0.9999999999</v>
       </c>
     </row>
     <row r="1926">
@@ -32844,7 +32844,7 @@
         <v>3</v>
       </c>
       <c r="E1930" t="n">
-        <v>-0.0000000001</v>
+        <v>0.999916666666667</v>
       </c>
     </row>
     <row r="1931">
@@ -32912,7 +32912,7 @@
         <v>4</v>
       </c>
       <c r="E1934" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1935">
@@ -33048,7 +33048,7 @@
         <v>4</v>
       </c>
       <c r="E1942" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1943">
@@ -33167,7 +33167,7 @@
         <v>4</v>
       </c>
       <c r="E1949" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1950">
@@ -33235,7 +33235,7 @@
         <v>4</v>
       </c>
       <c r="E1953" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1954">
@@ -33252,7 +33252,7 @@
         <v>4</v>
       </c>
       <c r="E1954" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1955">
@@ -33269,7 +33269,7 @@
         <v>4</v>
       </c>
       <c r="E1955" t="n">
-        <v>0</v>
+        <v>0.9999999999</v>
       </c>
     </row>
     <row r="1956">
@@ -33371,7 +33371,7 @@
         <v>4</v>
       </c>
       <c r="E1961" t="n">
-        <v>1</v>
+        <v>0.0487470389527073</v>
       </c>
     </row>
     <row r="1962">
@@ -33592,7 +33592,7 @@
         <v>4</v>
       </c>
       <c r="E1974" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1975">
@@ -33660,7 +33660,7 @@
         <v>4</v>
       </c>
       <c r="E1978" t="n">
-        <v>0.513447760565672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1979">
@@ -33762,7 +33762,7 @@
         <v>4</v>
       </c>
       <c r="E1984" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1985">
@@ -33779,7 +33779,7 @@
         <v>4</v>
       </c>
       <c r="E1985" t="n">
-        <v>0.9999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1986">
@@ -33915,7 +33915,7 @@
         <v>4</v>
       </c>
       <c r="E1993" t="n">
-        <v>0.9999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1994">
@@ -33932,7 +33932,7 @@
         <v>4</v>
       </c>
       <c r="E1994" t="n">
-        <v>0.9999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1995">
@@ -33966,7 +33966,7 @@
         <v>4</v>
       </c>
       <c r="E1996" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1997">
@@ -34204,7 +34204,7 @@
         <v>4</v>
       </c>
       <c r="E2010" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2011">
@@ -34306,7 +34306,7 @@
         <v>4</v>
       </c>
       <c r="E2016" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2017">
@@ -34408,7 +34408,7 @@
         <v>4</v>
       </c>
       <c r="E2022" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2023">
@@ -34493,7 +34493,7 @@
         <v>4</v>
       </c>
       <c r="E2027" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2028">
@@ -34527,7 +34527,7 @@
         <v>4</v>
       </c>
       <c r="E2029" t="n">
-        <v>1</v>
+        <v>0.0164179105460075</v>
       </c>
     </row>
     <row r="2030">
@@ -34544,7 +34544,7 @@
         <v>4</v>
       </c>
       <c r="E2030" t="n">
-        <v>-0.000000000100000008274037</v>
+        <v>-0.0000000001</v>
       </c>
     </row>
     <row r="2031">
@@ -34629,7 +34629,7 @@
         <v>4</v>
       </c>
       <c r="E2035" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2036">
@@ -34986,7 +34986,7 @@
         <v>4</v>
       </c>
       <c r="E2056" t="n">
-        <v>0.275485714718979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2057">
@@ -35513,7 +35513,7 @@
         <v>4</v>
       </c>
       <c r="E2087" t="n">
-        <v>0</v>
+        <v>0.00000000000000000000192911617957789</v>
       </c>
     </row>
     <row r="2088">
@@ -35785,7 +35785,7 @@
         <v>4</v>
       </c>
       <c r="E2103" t="n">
-        <v>0.00028735622904023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2104">
@@ -35853,7 +35853,7 @@
         <v>4</v>
       </c>
       <c r="E2107" t="n">
-        <v>0</v>
+        <v>-0.000000000000000000000242002027960045</v>
       </c>
     </row>
     <row r="2108">
@@ -35904,7 +35904,7 @@
         <v>4</v>
       </c>
       <c r="E2110" t="n">
-        <v>0.0000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2111">
@@ -36125,7 +36125,7 @@
         <v>4</v>
       </c>
       <c r="E2123" t="n">
-        <v>0.0000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2124">
@@ -36159,7 +36159,7 @@
         <v>4</v>
       </c>
       <c r="E2125" t="n">
-        <v>0</v>
+        <v>0.000000000000000000000777357134409312</v>
       </c>
     </row>
     <row r="2126">
@@ -36176,7 +36176,7 @@
         <v>4</v>
       </c>
       <c r="E2126" t="n">
-        <v>-0.0000000000000000000424965751052692</v>
+        <v>-0.0000000000000000000121939130807296</v>
       </c>
     </row>
     <row r="2127">
@@ -36227,7 +36227,7 @@
         <v>4</v>
       </c>
       <c r="E2129" t="n">
-        <v>0.0000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2130">
@@ -36312,7 +36312,7 @@
         <v>4</v>
       </c>
       <c r="E2134" t="n">
-        <v>0</v>
+        <v>0.0000833333333333334</v>
       </c>
     </row>
     <row r="2135">
@@ -36737,7 +36737,7 @@
         <v>5</v>
       </c>
       <c r="E2159" t="n">
-        <v>0.0000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2160">
@@ -36771,7 +36771,7 @@
         <v>5</v>
       </c>
       <c r="E2161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2162">
@@ -36822,7 +36822,7 @@
         <v>5</v>
       </c>
       <c r="E2164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2165">
@@ -36839,7 +36839,7 @@
         <v>5</v>
       </c>
       <c r="E2165" t="n">
-        <v>0</v>
+        <v>0.527495769881557</v>
       </c>
     </row>
     <row r="2166">
@@ -36992,7 +36992,7 @@
         <v>5</v>
       </c>
       <c r="E2174" t="n">
-        <v>0.693207842844282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2175">
@@ -37162,7 +37162,7 @@
         <v>5</v>
       </c>
       <c r="E2184" t="n">
-        <v>0.9999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2185">
@@ -37536,7 +37536,7 @@
         <v>5</v>
       </c>
       <c r="E2206" t="n">
-        <v>0.704974116590223</v>
+        <v>0.0899932478055368</v>
       </c>
     </row>
     <row r="2207">
@@ -37672,7 +37672,7 @@
         <v>5</v>
       </c>
       <c r="E2214" t="n">
-        <v>-0.0000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2215">
@@ -37689,7 +37689,7 @@
         <v>5</v>
       </c>
       <c r="E2215" t="n">
-        <v>0.0000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2216">
@@ -38029,7 +38029,7 @@
         <v>5</v>
       </c>
       <c r="E2235" t="n">
-        <v>0.0000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2236">
@@ -38284,7 +38284,7 @@
         <v>5</v>
       </c>
       <c r="E2250" t="n">
-        <v>0.0000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2251">
@@ -38335,7 +38335,7 @@
         <v>5</v>
       </c>
       <c r="E2253" t="n">
-        <v>0.9999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2254">
@@ -38386,7 +38386,7 @@
         <v>5</v>
       </c>
       <c r="E2256" t="n">
-        <v>0</v>
+        <v>0.0000000001</v>
       </c>
     </row>
     <row r="2257">
@@ -38403,7 +38403,7 @@
         <v>5</v>
       </c>
       <c r="E2257" t="n">
-        <v>0</v>
+        <v>0.0000000001</v>
       </c>
     </row>
     <row r="2258">
@@ -38471,7 +38471,7 @@
         <v>5</v>
       </c>
       <c r="E2261" t="n">
-        <v>0</v>
+        <v>0.0000947864246445498</v>
       </c>
     </row>
     <row r="2262">
@@ -38539,7 +38539,7 @@
         <v>5</v>
       </c>
       <c r="E2265" t="n">
-        <v>0.13860185185376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2266">
@@ -39015,7 +39015,7 @@
         <v>5</v>
       </c>
       <c r="E2293" t="n">
-        <v>0</v>
+        <v>-0.000000000100000008274037</v>
       </c>
     </row>
     <row r="2294">
@@ -39202,7 +39202,7 @@
         <v>5</v>
       </c>
       <c r="E2304" t="n">
-        <v>0</v>
+        <v>0.0199999937250001</v>
       </c>
     </row>
     <row r="2305">
@@ -39474,7 +39474,7 @@
         <v>5</v>
       </c>
       <c r="E2320" t="n">
-        <v>0</v>
+        <v>0.0000000001</v>
       </c>
     </row>
     <row r="2321">
@@ -39593,7 +39593,7 @@
         <v>5</v>
       </c>
       <c r="E2327" t="n">
-        <v>0</v>
+        <v>0.0000000001</v>
       </c>
     </row>
     <row r="2328">
@@ -39627,7 +39627,7 @@
         <v>5</v>
       </c>
       <c r="E2329" t="n">
-        <v>0.0000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2330">
@@ -39644,7 +39644,7 @@
         <v>5</v>
       </c>
       <c r="E2330" t="n">
-        <v>0</v>
+        <v>0.0000000000000000000121939130807296</v>
       </c>
     </row>
     <row r="2331">
@@ -39780,7 +39780,7 @@
         <v>5</v>
       </c>
       <c r="E2338" t="n">
-        <v>0.0000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2339">
@@ -39967,7 +39967,7 @@
         <v>6</v>
       </c>
       <c r="E2349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2350">
@@ -40137,7 +40137,7 @@
         <v>6</v>
       </c>
       <c r="E2359" t="n">
-        <v>0</v>
+        <v>0.0517893315327481</v>
       </c>
     </row>
     <row r="2360">
@@ -40307,7 +40307,7 @@
         <v>6</v>
       </c>
       <c r="E2369" t="n">
-        <v>0</v>
+        <v>0.101972081218274</v>
       </c>
     </row>
     <row r="2370">
@@ -40460,7 +40460,7 @@
         <v>6</v>
       </c>
       <c r="E2378" t="n">
-        <v>0.306792157155718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2379">
@@ -40477,7 +40477,7 @@
         <v>6</v>
       </c>
       <c r="E2379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2380">
@@ -40613,7 +40613,7 @@
         <v>6</v>
       </c>
       <c r="E2387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2388">
@@ -40630,7 +40630,7 @@
         <v>6</v>
       </c>
       <c r="E2388" t="n">
-        <v>0.0000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2389">
@@ -41140,7 +41140,7 @@
         <v>6</v>
       </c>
       <c r="E2418" t="n">
-        <v>0</v>
+        <v>0.911354938271605</v>
       </c>
     </row>
     <row r="2419">
@@ -41429,7 +41429,7 @@
         <v>6</v>
       </c>
       <c r="E2435" t="n">
-        <v>0.9999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2436">
@@ -41599,7 +41599,7 @@
         <v>6</v>
       </c>
       <c r="E2445" t="n">
-        <v>0</v>
+        <v>0.9999999999</v>
       </c>
     </row>
     <row r="2446">
@@ -41854,7 +41854,7 @@
         <v>6</v>
       </c>
       <c r="E2460" t="n">
-        <v>0</v>
+        <v>0.0000000001</v>
       </c>
     </row>
     <row r="2461">
@@ -41939,7 +41939,7 @@
         <v>6</v>
       </c>
       <c r="E2465" t="n">
-        <v>0</v>
+        <v>0.698862558748815</v>
       </c>
     </row>
     <row r="2466">
@@ -42007,7 +42007,7 @@
         <v>6</v>
       </c>
       <c r="E2469" t="n">
-        <v>0</v>
+        <v>0.0000000001</v>
       </c>
     </row>
     <row r="2470">
@@ -42483,7 +42483,7 @@
         <v>6</v>
       </c>
       <c r="E2497" t="n">
-        <v>0.9999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2498">
@@ -42551,7 +42551,7 @@
         <v>6</v>
       </c>
       <c r="E2501" t="n">
-        <v>1</v>
+        <v>0.0000000001</v>
       </c>
     </row>
     <row r="2502">
@@ -42568,7 +42568,7 @@
         <v>6</v>
       </c>
       <c r="E2502" t="n">
-        <v>1</v>
+        <v>0.0000000001</v>
       </c>
     </row>
     <row r="2503">
@@ -42670,7 +42670,7 @@
         <v>6</v>
       </c>
       <c r="E2508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2509">
@@ -42721,7 +42721,7 @@
         <v>6</v>
       </c>
       <c r="E2511" t="n">
-        <v>0.99971264357096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2512">
@@ -42823,7 +42823,7 @@
         <v>6</v>
       </c>
       <c r="E2517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2518">
@@ -42840,7 +42840,7 @@
         <v>6</v>
       </c>
       <c r="E2518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2519">
@@ -42942,7 +42942,7 @@
         <v>6</v>
       </c>
       <c r="E2524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2525">
@@ -43061,7 +43061,7 @@
         <v>6</v>
       </c>
       <c r="E2531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2532">
@@ -43095,7 +43095,7 @@
         <v>6</v>
       </c>
       <c r="E2533" t="n">
-        <v>0.999811320514623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2534">
@@ -43112,7 +43112,7 @@
         <v>6</v>
       </c>
       <c r="E2534" t="n">
-        <v>0.9999999999</v>
+        <v>0.000239234426794258</v>
       </c>
     </row>
     <row r="2535">
@@ -43163,7 +43163,7 @@
         <v>6</v>
       </c>
       <c r="E2537" t="n">
-        <v>0.9999999999</v>
+        <v>0.0000000001</v>
       </c>
     </row>
     <row r="2538">
@@ -43248,7 +43248,7 @@
         <v>6</v>
       </c>
       <c r="E2542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2543">
@@ -43352,7 +43352,7 @@
         <v>7487054298.64253</v>
       </c>
       <c r="E4" t="n">
-        <v>22.99999961199</v>
+        <v>2.00000000000391</v>
       </c>
     </row>
     <row r="5">
@@ -43360,16 +43360,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>20000</v>
+        <v>424780</v>
       </c>
       <c r="C5" t="n">
         <v>29790.559566787</v>
       </c>
       <c r="D5" t="n">
-        <v>595811191.33574</v>
+        <v>12654433892.7798</v>
       </c>
       <c r="E5" t="n">
-        <v>491652.40000613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -43386,7 +43386,7 @@
         <v>234252000000</v>
       </c>
       <c r="E6" t="n">
-        <v>191800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -43403,7 +43403,7 @@
         <v>5798388292.68293</v>
       </c>
       <c r="E7" t="n">
-        <v>68279.7000102759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -43420,7 +43420,7 @@
         <v>74500000000</v>
       </c>
       <c r="E8" t="n">
-        <v>169539.199999278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -43437,7 +43437,7 @@
         <v>2077620512.82051</v>
       </c>
       <c r="E9" t="n">
-        <v>610575.599984704</v>
+        <v>42511.9</v>
       </c>
     </row>
     <row r="11">
@@ -43492,22 +43492,22 @@
         <v>29</v>
       </c>
       <c r="B2" t="n">
-        <v>58000</v>
+        <v>5800</v>
       </c>
       <c r="C2" t="n">
-        <v>35000</v>
+        <v>3500</v>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>80794</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>19185</v>
       </c>
       <c r="G2" t="n">
-        <v>99970</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -43515,22 +43515,22 @@
         <v>30</v>
       </c>
       <c r="B3" t="n">
-        <v>68000</v>
+        <v>6800</v>
       </c>
       <c r="C3" t="n">
-        <v>64000</v>
+        <v>6400</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>298208</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>109865</v>
       </c>
       <c r="F3" t="n">
-        <v>21</v>
+        <v>16704</v>
       </c>
       <c r="G3" t="n">
-        <v>19977</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -43538,22 +43538,22 @@
         <v>31</v>
       </c>
       <c r="B4" t="n">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="C4" t="n">
-        <v>74000</v>
+        <v>7400</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>43551</v>
       </c>
       <c r="E4" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>106426</v>
       </c>
       <c r="G4" t="n">
-        <v>149973</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -43561,22 +43561,22 @@
         <v>32</v>
       </c>
       <c r="B5" t="n">
-        <v>78000</v>
+        <v>7800</v>
       </c>
       <c r="C5" t="n">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>12026</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>3969</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>15975</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -43584,22 +43584,22 @@
         <v>33</v>
       </c>
       <c r="B6" t="n">
-        <v>40000</v>
+        <v>4000</v>
       </c>
       <c r="C6" t="n">
-        <v>60000</v>
+        <v>6000</v>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>19992</v>
       </c>
       <c r="E6" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>19953</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -43607,22 +43607,22 @@
         <v>34</v>
       </c>
       <c r="B7" t="n">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="C7" t="n">
-        <v>48000</v>
+        <v>4800</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>15973</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>15995</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -43630,22 +43630,22 @@
         <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>314000</v>
+        <v>31400</v>
       </c>
       <c r="C8" t="n">
-        <v>311000</v>
+        <v>31100</v>
       </c>
       <c r="D8" t="n">
-        <v>53</v>
+        <v>373805</v>
       </c>
       <c r="E8" t="n">
-        <v>61</v>
+        <v>210614</v>
       </c>
       <c r="F8" t="n">
-        <v>43</v>
+        <v>142325</v>
       </c>
       <c r="G8" t="n">
-        <v>321843</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -43695,22 +43695,22 @@
         <v>29</v>
       </c>
       <c r="B4" t="n">
-        <v>100000</v>
+        <v>65000</v>
       </c>
       <c r="C4" t="n">
-        <v>154000</v>
+        <v>66800</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>22.99999961199</v>
+        <v>0.799999999999363</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.799999999995725</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.400000000008822</v>
       </c>
     </row>
     <row r="5">
@@ -43718,19 +43718,19 @@
         <v>30</v>
       </c>
       <c r="B5" t="n">
-        <v>100000</v>
+        <v>57000</v>
       </c>
       <c r="C5" t="n">
-        <v>165300</v>
+        <v>61100</v>
       </c>
       <c r="D5" t="n">
-        <v>229300</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>229300</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>33052.4000061304</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -43741,13 +43741,13 @@
         <v>31</v>
       </c>
       <c r="B6" t="n">
-        <v>100000</v>
+        <v>66000</v>
       </c>
       <c r="C6" t="n">
-        <v>117800</v>
+        <v>65800</v>
       </c>
       <c r="D6" t="n">
-        <v>191800</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -43764,16 +43764,16 @@
         <v>32</v>
       </c>
       <c r="B7" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="C7" t="n">
-        <v>175800</v>
+        <v>55600</v>
       </c>
       <c r="D7" t="n">
-        <v>60461.90000421</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>7817.80000606591</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -43787,22 +43787,22 @@
         <v>33</v>
       </c>
       <c r="B8" t="n">
-        <v>100000</v>
+        <v>70000</v>
       </c>
       <c r="C8" t="n">
-        <v>138100</v>
+        <v>72100</v>
       </c>
       <c r="D8" t="n">
-        <v>163061.600002145</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>6466.60000045241</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>10.9999966801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -43810,22 +43810,22 @@
         <v>34</v>
       </c>
       <c r="B9" t="n">
-        <v>100000</v>
+        <v>61000</v>
       </c>
       <c r="C9" t="n">
-        <v>147300</v>
+        <v>63300</v>
       </c>
       <c r="D9" t="n">
-        <v>191388.399993645</v>
+        <v>42511.9</v>
       </c>
       <c r="E9" t="n">
-        <v>176141.39999387</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>176143.39999387</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>66902.4000033199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -43833,22 +43833,22 @@
         <v>35</v>
       </c>
       <c r="B10" t="n">
-        <v>600000</v>
+        <v>369000</v>
       </c>
       <c r="C10" t="n">
-        <v>898300</v>
+        <v>384700</v>
       </c>
       <c r="D10" t="n">
-        <v>836011.9</v>
+        <v>42511.9</v>
       </c>
       <c r="E10" t="n">
-        <v>419748.8</v>
+        <v>0.799999999999363</v>
       </c>
       <c r="F10" t="n">
-        <v>209195.8</v>
+        <v>0.799999999995725</v>
       </c>
       <c r="G10" t="n">
-        <v>66913.4</v>
+        <v>0.400000000008822</v>
       </c>
     </row>
     <row r="12">
@@ -43903,10 +43903,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -44018,13 +44018,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -44033,7 +44033,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -44064,22 +44064,22 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -44087,10 +44087,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -44182,19 +44182,19 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -44297,10 +44297,10 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -44309,7 +44309,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -44343,7 +44343,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -44366,7 +44366,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -44386,22 +44386,22 @@
         <v>22</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -44432,16 +44432,16 @@
         <v>24</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
@@ -44458,19 +44458,19 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -44501,22 +44501,22 @@
         <v>27</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -44527,10 +44527,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -44539,7 +44539,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -44547,22 +44547,22 @@
         <v>29</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -44616,22 +44616,22 @@
         <v>32</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -44688,13 +44688,13 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -44734,10 +44734,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -44754,22 +44754,22 @@
         <v>38</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -44826,7 +44826,7 @@
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -44918,7 +44918,7 @@
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -44941,7 +44941,7 @@
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -44953,7 +44953,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -44964,10 +44964,10 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -44984,13 +44984,13 @@
         <v>48</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -44999,7 +44999,7 @@
         <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -45056,7 +45056,7 @@
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -45107,13 +45107,13 @@
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -45127,19 +45127,19 @@
         <v>2</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -45176,7 +45176,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
         <v>1</v>
@@ -45185,7 +45185,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -45245,7 +45245,7 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
@@ -45254,7 +45254,7 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -45291,13 +45291,13 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -45311,7 +45311,7 @@
         <v>10</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
@@ -45320,7 +45320,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -45360,16 +45360,16 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -45383,7 +45383,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
         <v>1</v>
@@ -45392,7 +45392,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -45403,19 +45403,19 @@
         <v>14</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -45495,13 +45495,13 @@
         <v>18</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -45518,10 +45518,10 @@
         <v>19</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
         <v>1</v>
@@ -45530,7 +45530,7 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -45633,19 +45633,19 @@
         <v>24</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -45659,7 +45659,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
         <v>1</v>
@@ -45668,7 +45668,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -45679,22 +45679,22 @@
         <v>26</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
         <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -45702,10 +45702,10 @@
         <v>27</v>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
         <v>1</v>
@@ -45714,7 +45714,7 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -45748,19 +45748,19 @@
         <v>29</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -45774,7 +45774,7 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
         <v>1</v>
@@ -45783,7 +45783,7 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -45794,19 +45794,19 @@
         <v>31</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -45820,16 +45820,16 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -45843,7 +45843,7 @@
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
         <v>1</v>
@@ -45852,7 +45852,7 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -45932,10 +45932,10 @@
         <v>37</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
         <v>1</v>
@@ -45944,7 +45944,7 @@
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -45958,16 +45958,16 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -45981,16 +45981,16 @@
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -46073,19 +46073,19 @@
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -46116,7 +46116,7 @@
         <v>45</v>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
         <v>1</v>
@@ -46142,7 +46142,7 @@
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -46162,10 +46162,10 @@
         <v>47</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105" t="n">
         <v>1</v>
@@ -46174,7 +46174,7 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -46185,19 +46185,19 @@
         <v>48</v>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -46257,13 +46257,13 @@
         <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -46328,13 +46328,13 @@
         <v>2</v>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
@@ -46343,7 +46343,7 @@
         <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -46420,19 +46420,19 @@
         <v>6</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -46489,7 +46489,7 @@
         <v>9</v>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
         <v>1</v>
@@ -46498,7 +46498,7 @@
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -46535,19 +46535,19 @@
         <v>11</v>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -46604,19 +46604,19 @@
         <v>14</v>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -46673,13 +46673,13 @@
         <v>17</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
         <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
@@ -46688,7 +46688,7 @@
         <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -46696,13 +46696,13 @@
         <v>18</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
         <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
@@ -46711,7 +46711,7 @@
         <v>1</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -46765,7 +46765,7 @@
         <v>21</v>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
         <v>1</v>
@@ -46774,7 +46774,7 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -46788,13 +46788,13 @@
         <v>22</v>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
@@ -46803,7 +46803,7 @@
         <v>1</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -46811,19 +46811,19 @@
         <v>23</v>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -46880,22 +46880,22 @@
         <v>26</v>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" t="n">
         <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -46995,19 +46995,19 @@
         <v>31</v>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E144" t="n">
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G144" t="n">
         <v>0</v>
@@ -47064,7 +47064,7 @@
         <v>34</v>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147" t="n">
         <v>1</v>
@@ -47133,10 +47133,10 @@
         <v>37</v>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D150" t="n">
         <v>1</v>
@@ -47179,10 +47179,10 @@
         <v>39</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D152" t="n">
         <v>1</v>
@@ -47202,19 +47202,19 @@
         <v>40</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
         <v>1</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
@@ -47225,7 +47225,7 @@
         <v>41</v>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C154" t="n">
         <v>1</v>
@@ -47234,7 +47234,7 @@
         <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -47248,7 +47248,7 @@
         <v>42</v>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
         <v>1</v>
@@ -47257,7 +47257,7 @@
         <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -47271,10 +47271,10 @@
         <v>43</v>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D156" t="n">
         <v>1</v>
@@ -47552,22 +47552,22 @@
         <v>3</v>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -47644,19 +47644,19 @@
         <v>7</v>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -47673,13 +47673,13 @@
         <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -47805,7 +47805,7 @@
         <v>14</v>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -47820,7 +47820,7 @@
         <v>1</v>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -47877,16 +47877,16 @@
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D185" t="n">
         <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -48012,7 +48012,7 @@
         <v>23</v>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -48024,10 +48024,10 @@
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -48035,7 +48035,7 @@
         <v>24</v>
       </c>
       <c r="B192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
@@ -48044,10 +48044,10 @@
         <v>1</v>
       </c>
       <c r="E192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -48173,7 +48173,7 @@
         <v>30</v>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198" t="n">
         <v>0</v>
@@ -48188,7 +48188,7 @@
         <v>1</v>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -48343,13 +48343,13 @@
         <v>1</v>
       </c>
       <c r="E205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205" t="n">
         <v>1</v>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -48380,10 +48380,10 @@
         <v>39</v>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D207" t="n">
         <v>1</v>
@@ -48392,10 +48392,10 @@
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -48403,7 +48403,7 @@
         <v>40</v>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
@@ -48415,7 +48415,7 @@
         <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -48429,13 +48429,13 @@
         <v>1</v>
       </c>
       <c r="C209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D209" t="n">
         <v>0</v>
       </c>
       <c r="E209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209" t="n">
         <v>0</v>
@@ -48472,7 +48472,7 @@
         <v>43</v>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -48481,7 +48481,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -48521,13 +48521,13 @@
         <v>1</v>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D213" t="n">
         <v>0</v>
       </c>
       <c r="E213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213" t="n">
         <v>0</v>
@@ -48593,16 +48593,16 @@
         <v>0</v>
       </c>
       <c r="D216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -48659,13 +48659,13 @@
         <v>1</v>
       </c>
       <c r="C219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D219" t="n">
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219" t="n">
         <v>0</v>
@@ -48721,7 +48721,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -48730,7 +48730,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -48836,13 +48836,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -48882,7 +48882,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -48897,7 +48897,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -48905,7 +48905,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -48914,7 +48914,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -48997,13 +48997,13 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -49066,7 +49066,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -49075,7 +49075,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -49112,7 +49112,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0.948210668467252</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -49127,7 +49127,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.0517893315327481</v>
       </c>
     </row>
     <row r="22">
@@ -49161,13 +49161,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -49181,7 +49181,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -49190,7 +49190,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -49204,19 +49204,19 @@
         <v>22</v>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0000000001</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
         <v>0.9999999999</v>
       </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
       <c r="F25" t="n">
-        <v>0.0000000001</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -49250,7 +49250,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -49262,7 +49262,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -49273,13 +49273,13 @@
         <v>25</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -49319,7 +49319,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -49331,7 +49331,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -49345,19 +49345,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.22229272416066</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.099492385786802</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0.0487470389527073</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.527495769881557</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.101972081218274</v>
       </c>
     </row>
     <row r="32">
@@ -49365,13 +49365,13 @@
         <v>29</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -49434,13 +49434,13 @@
         <v>32</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -49503,10 +49503,10 @@
         <v>35</v>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -49555,16 +49555,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.693207842844282</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.306792157155718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -49572,7 +49572,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -49587,7 +49587,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -49644,13 +49644,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -49733,16 +49733,16 @@
         <v>45</v>
       </c>
       <c r="B48" t="n">
-        <v>0.486552239434328</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.513447760565672</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -49756,7 +49756,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -49771,7 +49771,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -49785,16 +49785,16 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9999999999</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -49802,13 +49802,13 @@
         <v>48</v>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -49871,7 +49871,7 @@
         <v>51</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -49880,7 +49880,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -49922,16 +49922,16 @@
         <v>1</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0000000001</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9999999999</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -49948,10 +49948,10 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -50106,16 +50106,16 @@
         <v>9</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0000000001</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0000000000000000000100000061460038</v>
+        <v>1</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9999999999</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -50132,13 +50132,13 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0000000001</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9999999999</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -50181,10 +50181,10 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -50221,13 +50221,13 @@
         <v>14</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>0.0000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>0.9999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -50313,19 +50313,19 @@
         <v>18</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>0.0000504163750101316</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.00000000000660814764684943</v>
+        <v>0.909956335819453</v>
       </c>
       <c r="D76" t="n">
-        <v>0.295025883416385</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0.704974116590223</v>
+        <v>0.0899932478055368</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -50454,10 +50454,10 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -50497,22 +50497,22 @@
         <v>26</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>0.0000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>0.0886141975671294</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0000000001</v>
+        <v>0.0000308640612654275</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.0000000001</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>0.911354938271605</v>
       </c>
     </row>
     <row r="85">
@@ -50523,16 +50523,16 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>0.9999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.9999999999</v>
+        <v>0.0000000001</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0000000001</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -50569,10 +50569,10 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
@@ -50615,10 +50615,10 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
@@ -50641,10 +50641,10 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -50750,10 +50750,10 @@
         <v>37</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>-0.000000000100000008274037</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>0.0000000001</v>
       </c>
       <c r="D95" t="n">
         <v>1</v>
@@ -50779,10 +50779,10 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -50796,10 +50796,10 @@
         <v>39</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>-0.0000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>0.0000000001</v>
       </c>
       <c r="D97" t="n">
         <v>1</v>
@@ -50894,16 +50894,16 @@
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0000000001</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>0.9999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -50934,16 +50934,16 @@
         <v>45</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.00000000009999999998</v>
+        <v>0.0000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>0.00000000009999999998</v>
+        <v>0.983582089353992</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>0.0164179105460075</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -50957,16 +50957,16 @@
         <v>46</v>
       </c>
       <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
         <v>0.0000000001</v>
       </c>
-      <c r="C104" t="n">
-        <v>0</v>
-      </c>
       <c r="D104" t="n">
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.000000000100000008274037</v>
+        <v>-0.0000000001</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -50983,16 +50983,16 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>0.9999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.9999999999</v>
+        <v>0.0000000001</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0000000001</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -51006,10 +51006,10 @@
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -51075,13 +51075,13 @@
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -51149,10 +51149,10 @@
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>0.0000000001</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
@@ -51161,7 +51161,7 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>0.9999999999</v>
       </c>
     </row>
     <row r="116">
@@ -51238,10 +51238,10 @@
         <v>6</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -51307,10 +51307,10 @@
         <v>9</v>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -51353,10 +51353,10 @@
         <v>11</v>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>0.9999999999</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -51365,7 +51365,7 @@
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0000000001</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -51422,10 +51422,10 @@
         <v>14</v>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0000000001</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
@@ -51434,7 +51434,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9999999999</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -51491,22 +51491,22 @@
         <v>17</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>-0.000000000300000024822111</v>
       </c>
       <c r="C130" t="n">
         <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>0.0000000001</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>0.0000000001</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>0.0000000001</v>
       </c>
     </row>
     <row r="131">
@@ -51514,10 +51514,10 @@
         <v>18</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>0.0000000001</v>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>0.9999999998</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
@@ -51526,7 +51526,7 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>0.0000000001</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
@@ -51583,16 +51583,16 @@
         <v>21</v>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>0.724514285281021</v>
+        <v>0</v>
       </c>
       <c r="D134" t="n">
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>0.275485714718979</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -51606,22 +51606,22 @@
         <v>22</v>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>0.299905214921801</v>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>0.00113743990473934</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>0.0000947864246445498</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>0.698862558748815</v>
       </c>
     </row>
     <row r="136">
@@ -51629,10 +51629,10 @@
         <v>23</v>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -51698,22 +51698,22 @@
         <v>26</v>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>-0.000000000200000016548074</v>
       </c>
       <c r="C139" t="n">
-        <v>0.86139814814624</v>
+        <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>0.0000000001</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>0.13860185185376</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>0.0000000001</v>
       </c>
     </row>
     <row r="140">
@@ -51813,10 +51813,10 @@
         <v>31</v>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
@@ -51951,13 +51951,13 @@
         <v>37</v>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>0.9999999999</v>
+        <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>0.0000000001</v>
+        <v>0</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
@@ -51997,13 +51997,13 @@
         <v>39</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>0.995660377912264</v>
+        <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>0.00433962208773585</v>
+        <v>0</v>
       </c>
       <c r="E152" t="n">
         <v>0</v>
@@ -52043,10 +52043,10 @@
         <v>41</v>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
@@ -52066,10 +52066,10 @@
         <v>42</v>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D155" t="n">
         <v>0</v>
@@ -52089,10 +52089,10 @@
         <v>43</v>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
@@ -52112,10 +52112,10 @@
         <v>44</v>
       </c>
       <c r="B157" t="n">
-        <v>0.00198581557533972</v>
+        <v>0.775531914535815</v>
       </c>
       <c r="C157" t="n">
-        <v>0.99801418442466</v>
+        <v>0.224468085464185</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
@@ -52135,10 +52135,10 @@
         <v>45</v>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
@@ -52324,16 +52324,16 @@
         <v>1</v>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>0.735431098464346</v>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>0.264568901535654</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>0.00000000000000000000192911617957789</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
@@ -52370,22 +52370,22 @@
         <v>3</v>
       </c>
       <c r="B171" t="n">
+        <v>0</v>
+      </c>
+      <c r="C171" t="n">
         <v>0.0000000001</v>
       </c>
-      <c r="C171" t="n">
-        <v>0</v>
-      </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>-0.000000000100000008274037</v>
       </c>
       <c r="G171" t="n">
-        <v>0.9999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -52465,10 +52465,10 @@
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>-0.000000000100000008274037</v>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
@@ -52477,7 +52477,7 @@
         <v>0</v>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>0.0000000001</v>
       </c>
     </row>
     <row r="176">
@@ -52485,7 +52485,7 @@
         <v>8</v>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>0.9999999999</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
@@ -52500,7 +52500,7 @@
         <v>0</v>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>0.0000000001</v>
       </c>
     </row>
     <row r="177">
@@ -52623,7 +52623,7 @@
         <v>14</v>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>0.980000006275</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -52635,10 +52635,10 @@
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>0.0199999937250001</v>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -52695,19 +52695,19 @@
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>0.0000000001</v>
+        <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>0.000000000100000008274037</v>
+        <v>1</v>
       </c>
       <c r="E185" t="n">
-        <v>0.00028735622904023</v>
+        <v>0</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
       </c>
       <c r="G185" t="n">
-        <v>0.99971264357096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -52784,16 +52784,16 @@
         <v>21</v>
       </c>
       <c r="B189" t="n">
-        <v>0.000142856980692857</v>
+        <v>0.0000000001</v>
       </c>
       <c r="C189" t="n">
-        <v>0.999857143019307</v>
+        <v>0.9999999999</v>
       </c>
       <c r="D189" t="n">
         <v>0</v>
       </c>
       <c r="E189" t="n">
-        <v>0</v>
+        <v>-0.000000000000000000000242002027960045</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
@@ -52830,13 +52830,13 @@
         <v>23</v>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>0.0000000001</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>0</v>
+        <v>0.9999999999</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
@@ -52845,7 +52845,7 @@
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -52859,16 +52859,16 @@
         <v>0</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.0000000001</v>
+        <v>1</v>
       </c>
       <c r="E192" t="n">
-        <v>0.0000000001</v>
+        <v>0</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -52997,16 +52997,16 @@
         <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>0.9999999999</v>
       </c>
       <c r="E198" t="n">
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>0</v>
+        <v>0.0000000001</v>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -53152,22 +53152,22 @@
         <v>37</v>
       </c>
       <c r="B205" t="n">
-        <v>0</v>
+        <v>-0.000000000100000008274037</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.0000000001</v>
+        <v>1</v>
       </c>
       <c r="E205" t="n">
+        <v>0</v>
+      </c>
+      <c r="F205" t="n">
         <v>0.0000000001</v>
       </c>
-      <c r="F205" t="n">
-        <v>0</v>
-      </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -53198,22 +53198,22 @@
         <v>39</v>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>0.0197169810636787</v>
       </c>
       <c r="C207" t="n">
-        <v>0.0000000001</v>
+        <v>0</v>
       </c>
       <c r="D207" t="n">
-        <v>0.000188679285377352</v>
+        <v>0.980283018936321</v>
       </c>
       <c r="E207" t="n">
-        <v>0</v>
+        <v>0.000000000000000000000777357134409312</v>
       </c>
       <c r="F207" t="n">
-        <v>0.0000000001</v>
+        <v>0</v>
       </c>
       <c r="G207" t="n">
-        <v>0.999811320514623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -53221,22 +53221,22 @@
         <v>40</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0000000001</v>
+        <v>0</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>0.999760765573206</v>
       </c>
       <c r="E208" t="n">
-        <v>-0.0000000000000000000424965751052692</v>
+        <v>-0.0000000000000000000121939130807296</v>
       </c>
       <c r="F208" t="n">
-        <v>0</v>
+        <v>0.0000000000000000000121939130807296</v>
       </c>
       <c r="G208" t="n">
-        <v>0.9999999999</v>
+        <v>0.000239234426794258</v>
       </c>
     </row>
     <row r="209">
@@ -53244,10 +53244,10 @@
         <v>41</v>
       </c>
       <c r="B209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D209" t="n">
         <v>0</v>
@@ -53296,16 +53296,16 @@
         <v>0</v>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>0.9999999999</v>
       </c>
       <c r="E211" t="n">
+        <v>0</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0</v>
+      </c>
+      <c r="G211" t="n">
         <v>0.0000000001</v>
-      </c>
-      <c r="F211" t="n">
-        <v>0</v>
-      </c>
-      <c r="G211" t="n">
-        <v>0.9999999999</v>
       </c>
     </row>
     <row r="212">
@@ -53336,10 +53336,10 @@
         <v>45</v>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D213" t="n">
         <v>0</v>
@@ -53411,16 +53411,16 @@
         <v>0</v>
       </c>
       <c r="D216" t="n">
-        <v>-0.0000000001</v>
+        <v>0.999916666666667</v>
       </c>
       <c r="E216" t="n">
-        <v>0</v>
+        <v>0.0000833333333333334</v>
       </c>
       <c r="F216" t="n">
-        <v>0.0000000001</v>
+        <v>0</v>
       </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -53474,10 +53474,10 @@
         <v>51</v>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D219" t="n">
         <v>0</v>
@@ -53530,13 +53530,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>600000</v>
+        <v>369000</v>
       </c>
       <c r="C4" t="n">
-        <v>314000</v>
+        <v>31400</v>
       </c>
       <c r="D4" t="n">
-        <v>914000</v>
+        <v>400400</v>
       </c>
     </row>
     <row r="5">
@@ -53544,13 +53544,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>898300</v>
+        <v>384700</v>
       </c>
       <c r="C5" t="n">
-        <v>311000</v>
+        <v>31100</v>
       </c>
       <c r="D5" t="n">
-        <v>1209300</v>
+        <v>415800</v>
       </c>
     </row>
     <row r="6">
@@ -53558,13 +53558,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>836011.9</v>
+        <v>42511.9</v>
       </c>
       <c r="C6" t="n">
-        <v>53</v>
+        <v>373805</v>
       </c>
       <c r="D6" t="n">
-        <v>836064.9</v>
+        <v>416316.9</v>
       </c>
     </row>
     <row r="7">
@@ -53572,13 +53572,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>419748.8</v>
+        <v>0.799999999999363</v>
       </c>
       <c r="C7" t="n">
-        <v>61</v>
+        <v>210614</v>
       </c>
       <c r="D7" t="n">
-        <v>419809.8</v>
+        <v>210614.8</v>
       </c>
     </row>
     <row r="8">
@@ -53586,13 +53586,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>209195.8</v>
+        <v>0.799999999995725</v>
       </c>
       <c r="C8" t="n">
-        <v>43</v>
+        <v>142325</v>
       </c>
       <c r="D8" t="n">
-        <v>209238.8</v>
+        <v>142325.8</v>
       </c>
     </row>
     <row r="9">
@@ -53600,13 +53600,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>66913.4</v>
+        <v>0.400000000008822</v>
       </c>
       <c r="C9" t="n">
-        <v>321843</v>
+        <v>36</v>
       </c>
       <c r="D9" t="n">
-        <v>388756.4</v>
+        <v>36.4000000000088</v>
       </c>
     </row>
     <row r="11">
